--- a/datos/regresiones/Italia.xlsx
+++ b/datos/regresiones/Italia.xlsx
@@ -1428,7 +1428,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY2">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ2">
         <v>0.1428571428571428</v>
@@ -1530,7 +1530,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG2">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH2">
         <v>0.2857142857142857</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0.2</v>
       </c>
       <c r="AI5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ5">
         <v>0.2</v>
@@ -2490,7 +2490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR5">
         <v>0.1666666666666667</v>
@@ -2514,7 +2514,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY5">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ5">
         <v>0.1428571428571428</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH5">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0.2</v>
       </c>
       <c r="BU5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV5">
         <v>0.2</v>
@@ -2598,7 +2598,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB5">
         <v>0.1666666666666667</v>
@@ -2616,7 +2616,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG5">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH5">
         <v>0.1428571428571428</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0.2</v>
       </c>
       <c r="BU6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV6">
         <v>0.2</v>
@@ -2960,7 +2960,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA6">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB6">
         <v>0.1666666666666667</v>
@@ -2978,7 +2978,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG6">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH6">
         <v>0.1428571428571428</v>
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ7">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR7">
         <v>0.1666666666666667</v>
@@ -3238,7 +3238,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY7">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ7">
         <v>0.1428571428571428</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH7">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="BU7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV7">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA7">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB7">
         <v>0.1666666666666667</v>
@@ -3340,7 +3340,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG7">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH7">
         <v>0.1428571428571428</v>
@@ -3498,10 +3498,10 @@
         <v>0.25</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>0.2</v>
       </c>
       <c r="AI8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ8">
         <v>0.2</v>
@@ -3576,7 +3576,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ8">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR8">
         <v>0.1666666666666667</v>
@@ -3600,7 +3600,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY8">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ8">
         <v>0.1428571428571428</v>
@@ -3905,7 +3905,7 @@
         <v>178</v>
       </c>
       <c r="AF9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG9">
         <v>0.2</v>
@@ -4019,7 +4019,7 @@
         <v>178</v>
       </c>
       <c r="BR9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS9">
         <v>0.2</v>
@@ -4300,7 +4300,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ10">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR10">
         <v>0.1666666666666667</v>
@@ -4324,7 +4324,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY10">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ10">
         <v>0.1428571428571428</v>
@@ -4408,7 +4408,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA10">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB10">
         <v>0.3333333333333333</v>
@@ -4426,7 +4426,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG10">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH10">
         <v>0.2857142857142857</v>
@@ -4662,7 +4662,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ11">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR11">
         <v>0.1666666666666667</v>
@@ -4686,7 +4686,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY11">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ11">
         <v>0.1428571428571428</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ12">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR12">
         <v>0.1666666666666667</v>
@@ -5048,7 +5048,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY12">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ12">
         <v>0.2857142857142857</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="BU12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV12">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA12">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB12">
         <v>0.1666666666666667</v>
@@ -5150,7 +5150,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG12">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH12">
         <v>0.2857142857142857</v>
@@ -5308,10 +5308,10 @@
         <v>0.25</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>0.4</v>
       </c>
       <c r="AI13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <v>0.4</v>
@@ -5386,7 +5386,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ13">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR13">
         <v>0.3333333333333333</v>
@@ -5410,7 +5410,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY13">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
         <v>0.2857142857142857</v>
@@ -6032,10 +6032,10 @@
         <v>0.25</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>0.2</v>
       </c>
       <c r="AI15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>0.2</v>
@@ -6110,7 +6110,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ15">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR15">
         <v>0.1666666666666667</v>
@@ -6134,7 +6134,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY15">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ15">
         <v>0.1428571428571428</v>
@@ -6158,7 +6158,7 @@
         <v>0.25</v>
       </c>
       <c r="BG15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH15">
         <v>0.25</v>
@@ -6200,7 +6200,7 @@
         <v>0.2</v>
       </c>
       <c r="BU15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV15">
         <v>0.2</v>
@@ -6218,7 +6218,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA15">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB15">
         <v>0.1666666666666667</v>
@@ -6236,7 +6236,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG15">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH15">
         <v>0.1428571428571428</v>
@@ -6801,7 +6801,7 @@
         <v>177</v>
       </c>
       <c r="AF17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG17">
         <v>0.2</v>
@@ -7172,7 +7172,7 @@
         <v>0.2</v>
       </c>
       <c r="AI18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ18">
         <v>0.2</v>
@@ -7196,7 +7196,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ18">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR18">
         <v>0.1666666666666667</v>
@@ -7220,7 +7220,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY18">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ18">
         <v>0.1428571428571428</v>
@@ -7480,10 +7480,10 @@
         <v>0.25</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -7534,7 +7534,7 @@
         <v>0.2</v>
       </c>
       <c r="AI19">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ19">
         <v>0.2</v>
@@ -7558,7 +7558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ19">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR19">
         <v>0.3333333333333333</v>
@@ -7582,7 +7582,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY19">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ19">
         <v>0.2857142857142857</v>
@@ -7842,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="AQ20">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="AY20">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -8204,10 +8204,10 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AY21">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="BG21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH21">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="BU21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV21">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="CA21">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB21">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG21">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH21">
         <v>0.1428571428571428</v>
@@ -8566,10 +8566,10 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0.2</v>
       </c>
       <c r="AI22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>0.2</v>
@@ -8644,7 +8644,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ22">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <v>0.1666666666666667</v>
@@ -8668,7 +8668,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY22">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ22">
         <v>0.2857142857142857</v>
@@ -9344,7 +9344,7 @@
         <v>0.2</v>
       </c>
       <c r="AI24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ24">
         <v>0.2</v>
@@ -9368,7 +9368,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ24">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR24">
         <v>0.1666666666666667</v>
@@ -9392,7 +9392,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY24">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ24">
         <v>0.1428571428571428</v>
@@ -9458,7 +9458,7 @@
         <v>0.2</v>
       </c>
       <c r="BU24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV24">
         <v>0.2</v>
@@ -9476,7 +9476,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA24">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB24">
         <v>0.1666666666666667</v>
@@ -9494,7 +9494,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG24">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH24">
         <v>0.1428571428571428</v>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="AY27">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -10562,7 +10562,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA27">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB27">
         <v>0.1666666666666667</v>
@@ -10580,7 +10580,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG27">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH27">
         <v>0.1428571428571428</v>
@@ -10738,10 +10738,10 @@
         <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>178</v>
       </c>
       <c r="AF28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG28">
         <v>0.4</v>
@@ -10792,7 +10792,7 @@
         <v>0.2</v>
       </c>
       <c r="AI28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>0.2</v>
@@ -10816,7 +10816,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ28">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR28">
         <v>0.3333333333333333</v>
@@ -10840,7 +10840,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY28">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
         <v>0.2857142857142857</v>
@@ -10897,7 +10897,7 @@
         <v>178</v>
       </c>
       <c r="BR28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS28">
         <v>0.4</v>
@@ -11154,7 +11154,7 @@
         <v>0.2</v>
       </c>
       <c r="AI29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
         <v>0.2</v>
@@ -11178,7 +11178,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ29">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR29">
         <v>0.1666666666666667</v>
@@ -11202,7 +11202,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY29">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
         <v>0.1428571428571428</v>
@@ -11462,10 +11462,10 @@
         <v>0.25</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -11516,7 +11516,7 @@
         <v>0.2</v>
       </c>
       <c r="AI30">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ30">
         <v>0.2</v>
@@ -11540,7 +11540,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ30">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR30">
         <v>0.1666666666666667</v>
@@ -11564,7 +11564,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY30">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ30">
         <v>0.1428571428571428</v>
@@ -11926,7 +11926,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY31">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ31">
         <v>0.1428571428571428</v>
@@ -12186,10 +12186,10 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0.2</v>
       </c>
       <c r="AI32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
         <v>0.2</v>
@@ -12264,7 +12264,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ32">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR32">
         <v>0.1666666666666667</v>
@@ -12288,7 +12288,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY32">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ32">
         <v>0.1428571428571428</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="BG32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH32">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0.2</v>
       </c>
       <c r="BU32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV32">
         <v>0.2</v>
@@ -12372,7 +12372,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA32">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB32">
         <v>0.1666666666666667</v>
@@ -12390,7 +12390,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG32">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH32">
         <v>0.1428571428571428</v>
@@ -12910,10 +12910,10 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -12988,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="AQ34">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="AY34">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -13036,7 +13036,7 @@
         <v>0.25</v>
       </c>
       <c r="BG34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH34">
         <v>0.25</v>
@@ -13078,7 +13078,7 @@
         <v>0.2</v>
       </c>
       <c r="BU34">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV34">
         <v>0.2</v>
@@ -13096,7 +13096,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA34">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB34">
         <v>0.1666666666666667</v>
@@ -13114,7 +13114,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG34">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH34">
         <v>0.1428571428571428</v>
@@ -13350,7 +13350,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ35">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR35">
         <v>0.3333333333333333</v>
@@ -13374,7 +13374,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY35">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ35">
         <v>0.2857142857142857</v>
@@ -13476,7 +13476,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG35">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH35">
         <v>0.2857142857142857</v>
@@ -14720,10 +14720,10 @@
         <v>0.25</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -14765,7 +14765,7 @@
         <v>178</v>
       </c>
       <c r="AF39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG39">
         <v>0.2</v>
@@ -14774,7 +14774,7 @@
         <v>0.2</v>
       </c>
       <c r="AI39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
         <v>0.2</v>
@@ -14798,7 +14798,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ39">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR39">
         <v>0.1666666666666667</v>
@@ -14822,7 +14822,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY39">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ39">
         <v>0.1428571428571428</v>
@@ -14846,7 +14846,7 @@
         <v>0.5</v>
       </c>
       <c r="BG39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH39">
         <v>0.5</v>
@@ -14888,7 +14888,7 @@
         <v>0.4</v>
       </c>
       <c r="BU39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV39">
         <v>0.4</v>
@@ -14906,7 +14906,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA39">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB39">
         <v>0.3333333333333333</v>
@@ -14924,7 +14924,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG39">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH39">
         <v>0.2857142857142857</v>
@@ -15860,7 +15860,7 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ42">
         <v>0</v>
@@ -15884,7 +15884,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ42">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR42">
         <v>0.1666666666666667</v>
@@ -15908,7 +15908,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY42">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ42">
         <v>0.1428571428571428</v>
@@ -16010,7 +16010,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG42">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH42">
         <v>0.1428571428571428</v>
@@ -16213,7 +16213,7 @@
         <v>177</v>
       </c>
       <c r="AF43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -16246,7 +16246,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ43">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR43">
         <v>0.1666666666666667</v>
@@ -16270,7 +16270,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY43">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ43">
         <v>0.1428571428571428</v>
@@ -16354,7 +16354,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA43">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB43">
         <v>0.3333333333333333</v>
@@ -16372,7 +16372,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG43">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH43">
         <v>0.2857142857142857</v>
@@ -16530,10 +16530,10 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
         <v>0</v>
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="AQ44">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>0</v>
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="AY44">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -16656,7 +16656,7 @@
         <v>0.25</v>
       </c>
       <c r="BG44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH44">
         <v>0.25</v>
@@ -16698,7 +16698,7 @@
         <v>0.2</v>
       </c>
       <c r="BU44">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV44">
         <v>0.2</v>
@@ -16716,7 +16716,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA44">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB44">
         <v>0.1666666666666667</v>
@@ -16734,7 +16734,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG44">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH44">
         <v>0.1428571428571428</v>
@@ -16994,7 +16994,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY45">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ45">
         <v>0.1428571428571428</v>
@@ -18023,7 +18023,7 @@
         <v>177</v>
       </c>
       <c r="AF48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG48">
         <v>0.4</v>
@@ -18056,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR48">
         <v>0</v>
@@ -18080,7 +18080,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY48">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ48">
         <v>0.1428571428571428</v>
@@ -18137,7 +18137,7 @@
         <v>177</v>
       </c>
       <c r="BR48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS48">
         <v>0.4</v>
@@ -19118,7 +19118,7 @@
         <v>0.4</v>
       </c>
       <c r="AI51">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
         <v>0.4</v>
@@ -19142,7 +19142,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ51">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR51">
         <v>0.3333333333333333</v>
@@ -19166,7 +19166,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY51">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ51">
         <v>0.2857142857142857</v>
@@ -19232,7 +19232,7 @@
         <v>0.4</v>
       </c>
       <c r="BU51">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV51">
         <v>0.4</v>
@@ -19250,7 +19250,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA51">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB51">
         <v>0.3333333333333333</v>
@@ -19268,7 +19268,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG51">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH51">
         <v>0.2857142857142857</v>
@@ -19426,10 +19426,10 @@
         <v>0.25</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -19480,7 +19480,7 @@
         <v>0.2</v>
       </c>
       <c r="AI52">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ52">
         <v>0.2</v>
@@ -19504,7 +19504,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ52">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR52">
         <v>0.1666666666666667</v>
@@ -19528,7 +19528,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY52">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ52">
         <v>0.1428571428571428</v>
@@ -19788,10 +19788,10 @@
         <v>0.25</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -19842,7 +19842,7 @@
         <v>0.2</v>
       </c>
       <c r="AI53">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ53">
         <v>0.2</v>
@@ -19866,7 +19866,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ53">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR53">
         <v>0.1666666666666667</v>
@@ -19890,7 +19890,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY53">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ53">
         <v>0.1428571428571428</v>
@@ -21236,10 +21236,10 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -21290,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ57">
         <v>0</v>
@@ -21314,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="AQ57">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR57">
         <v>0</v>
@@ -21338,7 +21338,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY57">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ57">
         <v>0.1428571428571428</v>
@@ -21362,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="BG57">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH57">
         <v>0</v>
@@ -21404,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="BU57">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV57">
         <v>0</v>
@@ -21422,7 +21422,7 @@
         <v>0</v>
       </c>
       <c r="CA57">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB57">
         <v>0</v>
@@ -21440,7 +21440,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG57">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH57">
         <v>0.1428571428571428</v>
@@ -21598,10 +21598,10 @@
         <v>0.25</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -21652,7 +21652,7 @@
         <v>0.2</v>
       </c>
       <c r="AI58">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AJ58">
         <v>0.2</v>
@@ -21676,7 +21676,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ58">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR58">
         <v>0.1666666666666667</v>
@@ -21700,7 +21700,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY58">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ58">
         <v>0.1428571428571428</v>
@@ -21724,7 +21724,7 @@
         <v>0.25</v>
       </c>
       <c r="BG58">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH58">
         <v>0.25</v>
@@ -21766,7 +21766,7 @@
         <v>0.2</v>
       </c>
       <c r="BU58">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BV58">
         <v>0.2</v>
@@ -21784,7 +21784,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA58">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="CB58">
         <v>0.1666666666666667</v>
@@ -21802,7 +21802,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG58">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH58">
         <v>0.1428571428571428</v>
@@ -21960,10 +21960,10 @@
         <v>0.25</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -22014,7 +22014,7 @@
         <v>0.4</v>
       </c>
       <c r="AI59">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ59">
         <v>0.4</v>
@@ -22038,7 +22038,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ59">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR59">
         <v>0.3333333333333333</v>
@@ -22062,7 +22062,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY59">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ59">
         <v>0.2857142857142857</v>
@@ -22086,7 +22086,7 @@
         <v>0.25</v>
       </c>
       <c r="BG59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH59">
         <v>0.25</v>
@@ -22128,7 +22128,7 @@
         <v>0.4</v>
       </c>
       <c r="BU59">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV59">
         <v>0.4</v>
@@ -22146,7 +22146,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA59">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB59">
         <v>0.3333333333333333</v>
@@ -22164,7 +22164,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG59">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH59">
         <v>0.2857142857142857</v>
@@ -22684,10 +22684,10 @@
         <v>0.25</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -22738,7 +22738,7 @@
         <v>0.2</v>
       </c>
       <c r="AI61">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ61">
         <v>0.2</v>
@@ -22762,7 +22762,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ61">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR61">
         <v>0.1666666666666667</v>
@@ -22786,7 +22786,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY61">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ61">
         <v>0.1428571428571428</v>
@@ -22810,7 +22810,7 @@
         <v>0.25</v>
       </c>
       <c r="BG61">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH61">
         <v>0.25</v>
@@ -22852,7 +22852,7 @@
         <v>0.2</v>
       </c>
       <c r="BU61">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV61">
         <v>0.2</v>
@@ -22870,7 +22870,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA61">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB61">
         <v>0.1666666666666667</v>
@@ -22888,7 +22888,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG61">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH61">
         <v>0.1428571428571428</v>
@@ -23148,7 +23148,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY62">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ62">
         <v>0.1428571428571428</v>
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -23486,7 +23486,7 @@
         <v>0</v>
       </c>
       <c r="AQ63">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR63">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="AY63">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ63">
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="BU63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV63">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="CA63">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB63">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="CG63">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH63">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="AQ65">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR65">
         <v>0</v>
@@ -24234,7 +24234,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY65">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ65">
         <v>0.1428571428571428</v>
@@ -24901,7 +24901,7 @@
         <v>177</v>
       </c>
       <c r="AF67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG67">
         <v>0.6</v>
@@ -25272,7 +25272,7 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR68">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="AY68">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ68">
         <v>0</v>
@@ -26406,7 +26406,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY71">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ71">
         <v>0.2857142857142857</v>
@@ -26508,7 +26508,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG71">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH71">
         <v>0.4285714285714285</v>
@@ -27073,7 +27073,7 @@
         <v>177</v>
       </c>
       <c r="AF73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG73">
         <v>0.2</v>
@@ -27187,7 +27187,7 @@
         <v>177</v>
       </c>
       <c r="BR73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS73">
         <v>0.4</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -27806,7 +27806,7 @@
         <v>0.2</v>
       </c>
       <c r="AI75">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ75">
         <v>0.2</v>
@@ -27830,7 +27830,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR75">
         <v>0.1666666666666667</v>
@@ -27854,7 +27854,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY75">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ75">
         <v>0.1428571428571428</v>
@@ -27878,7 +27878,7 @@
         <v>0</v>
       </c>
       <c r="BG75">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH75">
         <v>0</v>
@@ -27920,7 +27920,7 @@
         <v>0.2</v>
       </c>
       <c r="BU75">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV75">
         <v>0.2</v>
@@ -27938,7 +27938,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA75">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB75">
         <v>0.1666666666666667</v>
@@ -27956,7 +27956,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG75">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH75">
         <v>0.1428571428571428</v>
@@ -28114,10 +28114,10 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -28168,7 +28168,7 @@
         <v>0</v>
       </c>
       <c r="AI76">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ76">
         <v>0</v>
@@ -28192,7 +28192,7 @@
         <v>0</v>
       </c>
       <c r="AQ76">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -28216,7 +28216,7 @@
         <v>0</v>
       </c>
       <c r="AY76">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ76">
         <v>0</v>
@@ -28240,7 +28240,7 @@
         <v>0</v>
       </c>
       <c r="BG76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH76">
         <v>0</v>
@@ -28282,7 +28282,7 @@
         <v>0</v>
       </c>
       <c r="BU76">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV76">
         <v>0</v>
@@ -28300,7 +28300,7 @@
         <v>0</v>
       </c>
       <c r="CA76">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB76">
         <v>0</v>
@@ -28318,7 +28318,7 @@
         <v>0</v>
       </c>
       <c r="CG76">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH76">
         <v>0</v>
@@ -28476,10 +28476,10 @@
         <v>0.25</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -28530,7 +28530,7 @@
         <v>0.2</v>
       </c>
       <c r="AI77">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ77">
         <v>0.2</v>
@@ -28554,7 +28554,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ77">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR77">
         <v>0.1666666666666667</v>
@@ -28578,7 +28578,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY77">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ77">
         <v>0.2857142857142857</v>
@@ -28602,7 +28602,7 @@
         <v>0.25</v>
       </c>
       <c r="BG77">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH77">
         <v>0.25</v>
@@ -28644,7 +28644,7 @@
         <v>0.2</v>
       </c>
       <c r="BU77">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV77">
         <v>0.2</v>
@@ -28662,7 +28662,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA77">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB77">
         <v>0.1666666666666667</v>
@@ -28680,7 +28680,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG77">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH77">
         <v>0.2857142857142857</v>
@@ -29200,10 +29200,10 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R79">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -29254,7 +29254,7 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ79">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="AQ79">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR79">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="AY79">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ79">
         <v>0</v>
@@ -29386,7 +29386,7 @@
         <v>0</v>
       </c>
       <c r="CA79">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="CB79">
         <v>0</v>
@@ -29404,7 +29404,7 @@
         <v>0</v>
       </c>
       <c r="CG79">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH79">
         <v>0</v>
@@ -29664,7 +29664,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY80">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ80">
         <v>0</v>
@@ -30286,10 +30286,10 @@
         <v>0.25</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -30340,7 +30340,7 @@
         <v>0.2</v>
       </c>
       <c r="AI82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ82">
         <v>0</v>
@@ -30364,7 +30364,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ82">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR82">
         <v>0</v>
@@ -30388,7 +30388,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY82">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ82">
         <v>0</v>
@@ -30412,7 +30412,7 @@
         <v>0.25</v>
       </c>
       <c r="BG82">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH82">
         <v>0.25</v>
@@ -30454,7 +30454,7 @@
         <v>0.2</v>
       </c>
       <c r="BU82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV82">
         <v>0.2</v>
@@ -30472,7 +30472,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA82">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB82">
         <v>0.1666666666666667</v>
@@ -30490,7 +30490,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG82">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH82">
         <v>0.1428571428571428</v>
@@ -31372,10 +31372,10 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -31426,7 +31426,7 @@
         <v>0.2</v>
       </c>
       <c r="AI85">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ85">
         <v>0.2</v>
@@ -31450,7 +31450,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ85">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR85">
         <v>0.1666666666666667</v>
@@ -31474,7 +31474,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY85">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ85">
         <v>0.1428571428571428</v>
@@ -31734,10 +31734,10 @@
         <v>0.25</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S86">
         <v>2</v>
@@ -31788,7 +31788,7 @@
         <v>0.2</v>
       </c>
       <c r="AI86">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ86">
         <v>0.4</v>
@@ -31812,7 +31812,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ86">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR86">
         <v>0.3333333333333333</v>
@@ -31836,7 +31836,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY86">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ86">
         <v>0.2857142857142857</v>
@@ -32096,10 +32096,10 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -32141,7 +32141,7 @@
         <v>178</v>
       </c>
       <c r="AF87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG87">
         <v>0.2</v>
@@ -32150,7 +32150,7 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ87">
         <v>0</v>
@@ -32174,7 +32174,7 @@
         <v>0</v>
       </c>
       <c r="AQ87">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR87">
         <v>0</v>
@@ -32198,7 +32198,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY87">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ87">
         <v>0.1428571428571428</v>
@@ -32222,7 +32222,7 @@
         <v>0</v>
       </c>
       <c r="BG87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH87">
         <v>0</v>
@@ -32264,7 +32264,7 @@
         <v>0</v>
       </c>
       <c r="BU87">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV87">
         <v>0</v>
@@ -32282,7 +32282,7 @@
         <v>0</v>
       </c>
       <c r="CA87">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB87">
         <v>0</v>
@@ -32300,7 +32300,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG87">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH87">
         <v>0.1428571428571428</v>
@@ -32898,7 +32898,7 @@
         <v>0</v>
       </c>
       <c r="AQ89">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR89">
         <v>0.1666666666666667</v>
@@ -32922,7 +32922,7 @@
         <v>0</v>
       </c>
       <c r="AY89">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ89">
         <v>0.1428571428571428</v>
@@ -33024,7 +33024,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG89">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH89">
         <v>0.1428571428571428</v>
@@ -33182,10 +33182,10 @@
         <v>0.25</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -33236,7 +33236,7 @@
         <v>0.2</v>
       </c>
       <c r="AI90">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ90">
         <v>0.2</v>
@@ -33260,7 +33260,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ90">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR90">
         <v>0.1666666666666667</v>
@@ -33284,7 +33284,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY90">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ90">
         <v>0.1428571428571428</v>
@@ -33308,7 +33308,7 @@
         <v>0.25</v>
       </c>
       <c r="BG90">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH90">
         <v>0.25</v>
@@ -33350,7 +33350,7 @@
         <v>0.4</v>
       </c>
       <c r="BU90">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV90">
         <v>0.4</v>
@@ -33368,7 +33368,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA90">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB90">
         <v>0.3333333333333333</v>
@@ -33386,7 +33386,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG90">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH90">
         <v>0.2857142857142857</v>
@@ -33598,7 +33598,7 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ91">
         <v>0</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AQ91">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR91">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="AY91">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ91">
         <v>0.1428571428571428</v>
@@ -33712,7 +33712,7 @@
         <v>0</v>
       </c>
       <c r="BU91">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV91">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>0</v>
       </c>
       <c r="CA91">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB91">
         <v>0</v>
@@ -33748,7 +33748,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG91">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH91">
         <v>0.1428571428571428</v>
@@ -33984,7 +33984,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ92">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR92">
         <v>0.1666666666666667</v>
@@ -34008,7 +34008,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY92">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ92">
         <v>0.1428571428571428</v>
@@ -34092,7 +34092,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA92">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB92">
         <v>0.3333333333333333</v>
@@ -34110,7 +34110,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG92">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH92">
         <v>0.2857142857142857</v>
@@ -34268,10 +34268,10 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -34313,7 +34313,7 @@
         <v>177</v>
       </c>
       <c r="AF93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG93">
         <v>0.4</v>
@@ -34322,7 +34322,7 @@
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ93">
         <v>0.2</v>
@@ -34346,7 +34346,7 @@
         <v>0</v>
       </c>
       <c r="AQ93">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR93">
         <v>0.1666666666666667</v>
@@ -34370,7 +34370,7 @@
         <v>0</v>
       </c>
       <c r="AY93">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ93">
         <v>0.1428571428571428</v>
@@ -34427,7 +34427,7 @@
         <v>178</v>
       </c>
       <c r="BR93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS93">
         <v>0.4</v>
@@ -35716,10 +35716,10 @@
         <v>0.5</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -35770,7 +35770,7 @@
         <v>0.4</v>
       </c>
       <c r="AI97">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ97">
         <v>0.2</v>
@@ -35794,7 +35794,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ97">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR97">
         <v>0.1666666666666667</v>
@@ -35818,7 +35818,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY97">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ97">
         <v>0.1428571428571428</v>
@@ -36078,10 +36078,10 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="AI98">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ98">
         <v>0.2</v>
@@ -36156,7 +36156,7 @@
         <v>0</v>
       </c>
       <c r="AQ98">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR98">
         <v>0.1666666666666667</v>
@@ -36180,7 +36180,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY98">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ98">
         <v>0.1428571428571428</v>
@@ -36204,7 +36204,7 @@
         <v>0.25</v>
       </c>
       <c r="BG98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH98">
         <v>0.25</v>
@@ -36246,7 +36246,7 @@
         <v>0.2</v>
       </c>
       <c r="BU98">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV98">
         <v>0.2</v>
@@ -36264,7 +36264,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA98">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB98">
         <v>0.1666666666666667</v>
@@ -36282,7 +36282,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG98">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH98">
         <v>0.2857142857142857</v>
@@ -36494,7 +36494,7 @@
         <v>0.2</v>
       </c>
       <c r="AI99">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ99">
         <v>0.4</v>
@@ -36518,7 +36518,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ99">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR99">
         <v>0.3333333333333333</v>
@@ -36542,7 +36542,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY99">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ99">
         <v>0.2857142857142857</v>
@@ -37164,10 +37164,10 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R101">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0.2</v>
       </c>
       <c r="AI101">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ101">
         <v>0.2</v>
@@ -37242,7 +37242,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR101">
         <v>0.1666666666666667</v>
@@ -37266,7 +37266,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY101">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ101">
         <v>0.1428571428571428</v>
@@ -37350,7 +37350,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA101">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB101">
         <v>0.1666666666666667</v>
@@ -37368,7 +37368,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG101">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH101">
         <v>0.1428571428571428</v>
@@ -37526,10 +37526,10 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R102">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -37580,7 +37580,7 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ102">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AQ102">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR102">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="AY102">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ102">
         <v>0</v>
@@ -37652,7 +37652,7 @@
         <v>0.25</v>
       </c>
       <c r="BG102">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH102">
         <v>0</v>
@@ -37694,7 +37694,7 @@
         <v>0.2</v>
       </c>
       <c r="BU102">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV102">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA102">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB102">
         <v>0</v>
@@ -37730,7 +37730,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG102">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH102">
         <v>0</v>
@@ -37933,7 +37933,7 @@
         <v>177</v>
       </c>
       <c r="AF103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG103">
         <v>0.2</v>
@@ -38304,7 +38304,7 @@
         <v>0.2</v>
       </c>
       <c r="AI104">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ104">
         <v>0.2</v>
@@ -38328,7 +38328,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ104">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR104">
         <v>0.1666666666666667</v>
@@ -38352,7 +38352,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY104">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ104">
         <v>0.1428571428571428</v>
@@ -38612,10 +38612,10 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -38666,7 +38666,7 @@
         <v>0</v>
       </c>
       <c r="AI105">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ105">
         <v>0</v>
@@ -38690,7 +38690,7 @@
         <v>0</v>
       </c>
       <c r="AQ105">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR105">
         <v>0</v>
@@ -38714,7 +38714,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY105">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ105">
         <v>0.1428571428571428</v>
@@ -39336,10 +39336,10 @@
         <v>0.25</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -39390,7 +39390,7 @@
         <v>0.2</v>
       </c>
       <c r="AI107">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ107">
         <v>0.2</v>
@@ -39414,7 +39414,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ107">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR107">
         <v>0.3333333333333333</v>
@@ -39438,7 +39438,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY107">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ107">
         <v>0.2857142857142857</v>
@@ -39743,7 +39743,7 @@
         <v>177</v>
       </c>
       <c r="AF108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG108">
         <v>0.2</v>
@@ -39857,7 +39857,7 @@
         <v>178</v>
       </c>
       <c r="BR108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS108">
         <v>0.2</v>
@@ -40060,10 +40060,10 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -40114,7 +40114,7 @@
         <v>0</v>
       </c>
       <c r="AI109">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -40138,7 +40138,7 @@
         <v>0</v>
       </c>
       <c r="AQ109">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR109">
         <v>0</v>
@@ -40162,7 +40162,7 @@
         <v>0</v>
       </c>
       <c r="AY109">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ109">
         <v>0</v>
@@ -40186,7 +40186,7 @@
         <v>0.25</v>
       </c>
       <c r="BG109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH109">
         <v>0.25</v>
@@ -40228,7 +40228,7 @@
         <v>0.2</v>
       </c>
       <c r="BU109">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV109">
         <v>0.2</v>
@@ -40246,7 +40246,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA109">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB109">
         <v>0.1666666666666667</v>
@@ -40264,7 +40264,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG109">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH109">
         <v>0.1428571428571428</v>
@@ -40422,10 +40422,10 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R110">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -40476,7 +40476,7 @@
         <v>0.2</v>
       </c>
       <c r="AI110">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ110">
         <v>0.2</v>
@@ -40500,7 +40500,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ110">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR110">
         <v>0.1666666666666667</v>
@@ -40524,7 +40524,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY110">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ110">
         <v>0.1428571428571428</v>
@@ -40548,7 +40548,7 @@
         <v>0</v>
       </c>
       <c r="BG110">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BH110">
         <v>0</v>
@@ -40590,7 +40590,7 @@
         <v>0.2</v>
       </c>
       <c r="BU110">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV110">
         <v>0.2</v>
@@ -40608,7 +40608,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA110">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB110">
         <v>0.1666666666666667</v>
@@ -40626,7 +40626,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG110">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH110">
         <v>0.1428571428571428</v>
@@ -40862,7 +40862,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ111">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR111">
         <v>0.1666666666666667</v>
@@ -40886,7 +40886,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY111">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ111">
         <v>0.2857142857142857</v>
@@ -41508,10 +41508,10 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -41562,7 +41562,7 @@
         <v>0</v>
       </c>
       <c r="AI113">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ113">
         <v>0</v>
@@ -41586,7 +41586,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ113">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR113">
         <v>0.1666666666666667</v>
@@ -41610,7 +41610,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY113">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ113">
         <v>0.1428571428571428</v>
@@ -41634,7 +41634,7 @@
         <v>0</v>
       </c>
       <c r="BG113">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH113">
         <v>0</v>
@@ -41676,7 +41676,7 @@
         <v>0</v>
       </c>
       <c r="BU113">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV113">
         <v>0</v>
@@ -41694,7 +41694,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA113">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB113">
         <v>0.1666666666666667</v>
@@ -41712,7 +41712,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG113">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH113">
         <v>0.1428571428571428</v>
@@ -41870,10 +41870,10 @@
         <v>0.5</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S114">
         <v>2</v>
@@ -41924,7 +41924,7 @@
         <v>0.4</v>
       </c>
       <c r="AI114">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ114">
         <v>0.4</v>
@@ -41948,7 +41948,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ114">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR114">
         <v>0.3333333333333333</v>
@@ -41972,7 +41972,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY114">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ114">
         <v>0.2857142857142857</v>
@@ -43058,7 +43058,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY117">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ117">
         <v>0.1428571428571428</v>
@@ -43160,7 +43160,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG117">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH117">
         <v>0.1428571428571428</v>
@@ -43734,7 +43734,7 @@
         <v>0.2</v>
       </c>
       <c r="AI119">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ119">
         <v>0.2</v>
@@ -43758,7 +43758,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ119">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR119">
         <v>0.1666666666666667</v>
@@ -43782,7 +43782,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY119">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ119">
         <v>0.1428571428571428</v>
@@ -43848,7 +43848,7 @@
         <v>0.2</v>
       </c>
       <c r="BU119">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV119">
         <v>0.2</v>
@@ -43866,7 +43866,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA119">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB119">
         <v>0.1666666666666667</v>
@@ -43884,7 +43884,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG119">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH119">
         <v>0.1428571428571428</v>
@@ -44096,7 +44096,7 @@
         <v>0.2</v>
       </c>
       <c r="AI120">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ120">
         <v>0.2</v>
@@ -44120,7 +44120,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ120">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR120">
         <v>0.1666666666666667</v>
@@ -44144,7 +44144,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY120">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ120">
         <v>0.1428571428571428</v>
@@ -44210,7 +44210,7 @@
         <v>0.2</v>
       </c>
       <c r="BU120">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV120">
         <v>0.2</v>
@@ -44228,7 +44228,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA120">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB120">
         <v>0.1666666666666667</v>
@@ -44246,7 +44246,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG120">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH120">
         <v>0.1428571428571428</v>
@@ -44482,7 +44482,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ121">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR121">
         <v>0.1666666666666667</v>
@@ -44506,7 +44506,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY121">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ121">
         <v>0.1428571428571428</v>
@@ -44608,7 +44608,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG121">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH121">
         <v>0.1428571428571428</v>
@@ -45128,10 +45128,10 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -45182,7 +45182,7 @@
         <v>0</v>
       </c>
       <c r="AI123">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ123">
         <v>0</v>
@@ -45206,7 +45206,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ123">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR123">
         <v>0.1666666666666667</v>
@@ -45230,7 +45230,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY123">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ123">
         <v>0.1428571428571428</v>
@@ -45490,10 +45490,10 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -45544,7 +45544,7 @@
         <v>0</v>
       </c>
       <c r="AI124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ124">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AQ124">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR124">
         <v>0</v>
@@ -45592,7 +45592,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY124">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ124">
         <v>0.1428571428571428</v>
@@ -45616,7 +45616,7 @@
         <v>0</v>
       </c>
       <c r="BG124">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH124">
         <v>0</v>
@@ -45658,7 +45658,7 @@
         <v>0</v>
       </c>
       <c r="BU124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV124">
         <v>0.2</v>
@@ -45676,7 +45676,7 @@
         <v>0</v>
       </c>
       <c r="CA124">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB124">
         <v>0.1666666666666667</v>
@@ -45694,7 +45694,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG124">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH124">
         <v>0.2857142857142857</v>
@@ -45897,7 +45897,7 @@
         <v>178</v>
       </c>
       <c r="AF125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG125">
         <v>0.2</v>
@@ -46011,7 +46011,7 @@
         <v>178</v>
       </c>
       <c r="BR125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS125">
         <v>0.2</v>
@@ -46576,10 +46576,10 @@
         <v>0.25</v>
       </c>
       <c r="Q127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S127">
         <v>1</v>
@@ -46630,7 +46630,7 @@
         <v>0.2</v>
       </c>
       <c r="AI127">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ127">
         <v>0.2</v>
@@ -46654,7 +46654,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ127">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR127">
         <v>0.1666666666666667</v>
@@ -46678,7 +46678,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY127">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ127">
         <v>0.1428571428571428</v>
@@ -46938,10 +46938,10 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -46992,7 +46992,7 @@
         <v>0.2</v>
       </c>
       <c r="AI128">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ128">
         <v>0.2</v>
@@ -47016,7 +47016,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ128">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR128">
         <v>0.1666666666666667</v>
@@ -47040,7 +47040,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY128">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ128">
         <v>0.1428571428571428</v>
@@ -47064,7 +47064,7 @@
         <v>0</v>
       </c>
       <c r="BG128">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH128">
         <v>0.25</v>
@@ -47106,7 +47106,7 @@
         <v>0.2</v>
       </c>
       <c r="BU128">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV128">
         <v>0.4</v>
@@ -47124,7 +47124,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA128">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB128">
         <v>0.3333333333333333</v>
@@ -47142,7 +47142,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG128">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH128">
         <v>0.2857142857142857</v>
@@ -47402,7 +47402,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY129">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ129">
         <v>0.2857142857142857</v>
@@ -48024,10 +48024,10 @@
         <v>0.25</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S131">
         <v>1</v>
@@ -48078,7 +48078,7 @@
         <v>0.2</v>
       </c>
       <c r="AI131">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ131">
         <v>0.2</v>
@@ -48102,7 +48102,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ131">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR131">
         <v>0.1666666666666667</v>
@@ -48126,7 +48126,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY131">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ131">
         <v>0.1428571428571428</v>
@@ -48431,7 +48431,7 @@
         <v>178</v>
       </c>
       <c r="AF132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG132">
         <v>0.2</v>
@@ -49110,10 +49110,10 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -49164,7 +49164,7 @@
         <v>0.2</v>
       </c>
       <c r="AI134">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ134">
         <v>0.2</v>
@@ -49188,7 +49188,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ134">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR134">
         <v>0.1666666666666667</v>
@@ -49212,7 +49212,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY134">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ134">
         <v>0.2857142857142857</v>
@@ -49236,7 +49236,7 @@
         <v>0</v>
       </c>
       <c r="BG134">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH134">
         <v>0</v>
@@ -49278,7 +49278,7 @@
         <v>0.2</v>
       </c>
       <c r="BU134">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV134">
         <v>0.2</v>
@@ -49296,7 +49296,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA134">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB134">
         <v>0.1666666666666667</v>
@@ -49314,7 +49314,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG134">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH134">
         <v>0.2857142857142857</v>
@@ -50250,7 +50250,7 @@
         <v>0</v>
       </c>
       <c r="AI137">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ137">
         <v>0</v>
@@ -50274,7 +50274,7 @@
         <v>0</v>
       </c>
       <c r="AQ137">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR137">
         <v>0</v>
@@ -50298,7 +50298,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY137">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ137">
         <v>0.1428571428571428</v>
@@ -50636,7 +50636,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ138">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR138">
         <v>0.1666666666666667</v>
@@ -50660,7 +50660,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY138">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ138">
         <v>0.1428571428571428</v>
@@ -50744,7 +50744,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA138">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB138">
         <v>0.3333333333333333</v>
@@ -50762,7 +50762,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG138">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH138">
         <v>0.2857142857142857</v>
@@ -50920,10 +50920,10 @@
         <v>0.5</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S139">
         <v>2</v>
@@ -50974,7 +50974,7 @@
         <v>0.4</v>
       </c>
       <c r="AI139">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ139">
         <v>0.4</v>
@@ -50998,7 +50998,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ139">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR139">
         <v>0.3333333333333333</v>
@@ -51022,7 +51022,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY139">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ139">
         <v>0.2857142857142857</v>
@@ -51046,7 +51046,7 @@
         <v>0.5</v>
       </c>
       <c r="BG139">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH139">
         <v>0.5</v>
@@ -51088,7 +51088,7 @@
         <v>0.4</v>
       </c>
       <c r="BU139">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV139">
         <v>0.4</v>
@@ -51106,7 +51106,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA139">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB139">
         <v>0.3333333333333333</v>
@@ -51124,7 +51124,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG139">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH139">
         <v>0.2857142857142857</v>
@@ -51384,7 +51384,7 @@
         <v>0</v>
       </c>
       <c r="AY140">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ140">
         <v>0</v>
@@ -51486,7 +51486,7 @@
         <v>0</v>
       </c>
       <c r="CG140">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH140">
         <v>0</v>
@@ -51644,10 +51644,10 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -51698,7 +51698,7 @@
         <v>0.2</v>
       </c>
       <c r="AI141">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ141">
         <v>0.2</v>
@@ -51722,7 +51722,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ141">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR141">
         <v>0.1666666666666667</v>
@@ -51746,7 +51746,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY141">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ141">
         <v>0.1428571428571428</v>
@@ -52006,10 +52006,10 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -52060,7 +52060,7 @@
         <v>0</v>
       </c>
       <c r="AI142">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ142">
         <v>0</v>
@@ -52084,7 +52084,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ142">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR142">
         <v>0.1666666666666667</v>
@@ -52108,7 +52108,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY142">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ142">
         <v>0.1428571428571428</v>
@@ -52132,7 +52132,7 @@
         <v>0.25</v>
       </c>
       <c r="BG142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH142">
         <v>0</v>
@@ -52174,7 +52174,7 @@
         <v>0.2</v>
       </c>
       <c r="BU142">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV142">
         <v>0</v>
@@ -52192,7 +52192,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA142">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB142">
         <v>0.1666666666666667</v>
@@ -52210,7 +52210,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG142">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH142">
         <v>0.1428571428571428</v>
@@ -52368,10 +52368,10 @@
         <v>0.25</v>
       </c>
       <c r="Q143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S143">
         <v>1</v>
@@ -52422,7 +52422,7 @@
         <v>0.2</v>
       </c>
       <c r="AI143">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ143">
         <v>0.2</v>
@@ -52446,7 +52446,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ143">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR143">
         <v>0.1666666666666667</v>
@@ -52470,7 +52470,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY143">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ143">
         <v>0.1428571428571428</v>
@@ -52730,10 +52730,10 @@
         <v>0.25</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S144">
         <v>1</v>
@@ -52784,7 +52784,7 @@
         <v>0.2</v>
       </c>
       <c r="AI144">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ144">
         <v>0.2</v>
@@ -52808,7 +52808,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR144">
         <v>0.1666666666666667</v>
@@ -52832,7 +52832,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY144">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ144">
         <v>0.1428571428571428</v>
@@ -52898,7 +52898,7 @@
         <v>0.4</v>
       </c>
       <c r="BU144">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV144">
         <v>0.2</v>
@@ -52916,7 +52916,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA144">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB144">
         <v>0.1666666666666667</v>
@@ -52934,7 +52934,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG144">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH144">
         <v>0.1428571428571428</v>
@@ -53092,10 +53092,10 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R145">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -53146,7 +53146,7 @@
         <v>0.2</v>
       </c>
       <c r="AI145">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ145">
         <v>0.2</v>
@@ -53170,7 +53170,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ145">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR145">
         <v>0.1666666666666667</v>
@@ -53194,7 +53194,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY145">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ145">
         <v>0.1428571428571428</v>
@@ -53918,7 +53918,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY147">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ147">
         <v>0.1428571428571428</v>
@@ -54540,10 +54540,10 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S149">
         <v>0</v>
@@ -54594,7 +54594,7 @@
         <v>0.2</v>
       </c>
       <c r="AI149">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ149">
         <v>0.2</v>
@@ -54618,7 +54618,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ149">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR149">
         <v>0.1666666666666667</v>
@@ -54642,7 +54642,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY149">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ149">
         <v>0.2857142857142857</v>
@@ -54666,7 +54666,7 @@
         <v>0</v>
       </c>
       <c r="BG149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH149">
         <v>0</v>
@@ -54708,7 +54708,7 @@
         <v>0.2</v>
       </c>
       <c r="BU149">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV149">
         <v>0.2</v>
@@ -54726,7 +54726,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA149">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB149">
         <v>0.1666666666666667</v>
@@ -54744,7 +54744,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG149">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH149">
         <v>0.2857142857142857</v>
@@ -54947,7 +54947,7 @@
         <v>177</v>
       </c>
       <c r="AF150" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG150">
         <v>0.2</v>
@@ -55061,7 +55061,7 @@
         <v>177</v>
       </c>
       <c r="BR150" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS150">
         <v>0.2</v>
@@ -55626,10 +55626,10 @@
         <v>0.25</v>
       </c>
       <c r="Q152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R152">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S152">
         <v>1</v>
@@ -55680,7 +55680,7 @@
         <v>0.2</v>
       </c>
       <c r="AI152">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AJ152">
         <v>0.2</v>
@@ -55704,7 +55704,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ152">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR152">
         <v>0.1666666666666667</v>
@@ -55728,7 +55728,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY152">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ152">
         <v>0.1428571428571428</v>
@@ -55752,7 +55752,7 @@
         <v>0.25</v>
       </c>
       <c r="BG152">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH152">
         <v>0.25</v>
@@ -55794,7 +55794,7 @@
         <v>0.2</v>
       </c>
       <c r="BU152">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV152">
         <v>0.2</v>
@@ -55812,7 +55812,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA152">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="CB152">
         <v>0.1666666666666667</v>
@@ -55830,7 +55830,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG152">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH152">
         <v>0.1428571428571428</v>
@@ -56066,7 +56066,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ153">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR153">
         <v>0.1666666666666667</v>
@@ -56090,7 +56090,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY153">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ153">
         <v>0.2857142857142857</v>
@@ -56174,7 +56174,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA153">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB153">
         <v>0.3333333333333333</v>
@@ -56192,7 +56192,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG153">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH153">
         <v>0.4285714285714285</v>
@@ -56395,7 +56395,7 @@
         <v>177</v>
       </c>
       <c r="AF154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG154">
         <v>0</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AQ157">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR157">
         <v>0</v>
@@ -57538,7 +57538,7 @@
         <v>0</v>
       </c>
       <c r="AY157">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ157">
         <v>0</v>
@@ -57798,10 +57798,10 @@
         <v>0.25</v>
       </c>
       <c r="Q158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S158">
         <v>1</v>
@@ -57852,7 +57852,7 @@
         <v>0.2</v>
       </c>
       <c r="AI158">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ158">
         <v>0.2</v>
@@ -57876,7 +57876,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ158">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR158">
         <v>0.1666666666666667</v>
@@ -57900,7 +57900,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY158">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ158">
         <v>0.1428571428571428</v>
@@ -57924,7 +57924,7 @@
         <v>0.25</v>
       </c>
       <c r="BG158">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH158">
         <v>0.5</v>
@@ -57966,7 +57966,7 @@
         <v>0.2</v>
       </c>
       <c r="BU158">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV158">
         <v>0.4</v>
@@ -57984,7 +57984,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA158">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB158">
         <v>0.3333333333333333</v>
@@ -58002,7 +58002,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG158">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH158">
         <v>0.2857142857142857</v>
@@ -58522,10 +58522,10 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R160">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S160">
         <v>0</v>
@@ -58576,7 +58576,7 @@
         <v>0</v>
       </c>
       <c r="AI160">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ160">
         <v>0</v>
@@ -58600,7 +58600,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ160">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR160">
         <v>0.1666666666666667</v>
@@ -58624,7 +58624,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY160">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ160">
         <v>0.1428571428571428</v>
@@ -58938,7 +58938,7 @@
         <v>0.2</v>
       </c>
       <c r="AI161">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ161">
         <v>0</v>
@@ -58962,7 +58962,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ161">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR161">
         <v>0</v>
@@ -58986,7 +58986,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY161">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ161">
         <v>0</v>
@@ -59052,7 +59052,7 @@
         <v>0.4</v>
       </c>
       <c r="BU161">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV161">
         <v>0.2</v>
@@ -59070,7 +59070,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA161">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB161">
         <v>0.1666666666666667</v>
@@ -59088,7 +59088,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG161">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH161">
         <v>0.1428571428571428</v>
@@ -59324,7 +59324,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ162">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR162">
         <v>0.1666666666666667</v>
@@ -59348,7 +59348,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY162">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ162">
         <v>0.1428571428571428</v>
@@ -59608,10 +59608,10 @@
         <v>0.25</v>
       </c>
       <c r="Q163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S163">
         <v>1</v>
@@ -59662,7 +59662,7 @@
         <v>0.2</v>
       </c>
       <c r="AI163">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ163">
         <v>0.2</v>
@@ -59686,7 +59686,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ163">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR163">
         <v>0.1666666666666667</v>
@@ -59710,7 +59710,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY163">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ163">
         <v>0.2857142857142857</v>
@@ -59734,7 +59734,7 @@
         <v>0.25</v>
       </c>
       <c r="BG163">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH163">
         <v>0.25</v>
@@ -59776,7 +59776,7 @@
         <v>0.2</v>
       </c>
       <c r="BU163">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV163">
         <v>0.2</v>
@@ -59794,7 +59794,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA163">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB163">
         <v>0.1666666666666667</v>
@@ -59812,7 +59812,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG163">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH163">
         <v>0.2857142857142857</v>
@@ -59970,10 +59970,10 @@
         <v>0.25</v>
       </c>
       <c r="Q164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S164">
         <v>1</v>
@@ -60024,7 +60024,7 @@
         <v>0.2</v>
       </c>
       <c r="AI164">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ164">
         <v>0.2</v>
@@ -60048,7 +60048,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ164">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR164">
         <v>0.3333333333333333</v>
@@ -60072,7 +60072,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY164">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ164">
         <v>0.2857142857142857</v>
@@ -60096,7 +60096,7 @@
         <v>0.25</v>
       </c>
       <c r="BG164">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH164">
         <v>0.25</v>
@@ -60138,7 +60138,7 @@
         <v>0.2</v>
       </c>
       <c r="BU164">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV164">
         <v>0.2</v>
@@ -60156,7 +60156,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA164">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB164">
         <v>0.3333333333333333</v>
@@ -60174,7 +60174,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG164">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH164">
         <v>0.2857142857142857</v>
@@ -60386,7 +60386,7 @@
         <v>0</v>
       </c>
       <c r="AI165">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ165">
         <v>0.2</v>
@@ -60410,7 +60410,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ165">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR165">
         <v>0.1666666666666667</v>
@@ -60434,7 +60434,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY165">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ165">
         <v>0.1428571428571428</v>
@@ -60694,10 +60694,10 @@
         <v>0.25</v>
       </c>
       <c r="Q166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R166">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S166">
         <v>1</v>
@@ -60748,7 +60748,7 @@
         <v>0.2</v>
       </c>
       <c r="AI166">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ166">
         <v>0.2</v>
@@ -60772,7 +60772,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ166">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR166">
         <v>0.1666666666666667</v>
@@ -60796,7 +60796,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY166">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ166">
         <v>0.1428571428571428</v>
@@ -61418,10 +61418,10 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R168">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S168">
         <v>0</v>
@@ -61472,7 +61472,7 @@
         <v>0</v>
       </c>
       <c r="AI168">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ168">
         <v>0</v>
@@ -61496,7 +61496,7 @@
         <v>0</v>
       </c>
       <c r="AQ168">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR168">
         <v>0.1666666666666667</v>
@@ -61520,7 +61520,7 @@
         <v>0</v>
       </c>
       <c r="AY168">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ168">
         <v>0.1428571428571428</v>
@@ -61544,7 +61544,7 @@
         <v>0</v>
       </c>
       <c r="BG168">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH168">
         <v>0</v>
@@ -61586,7 +61586,7 @@
         <v>0</v>
       </c>
       <c r="BU168">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV168">
         <v>0</v>
@@ -61604,7 +61604,7 @@
         <v>0</v>
       </c>
       <c r="CA168">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB168">
         <v>0.1666666666666667</v>
@@ -61622,7 +61622,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG168">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH168">
         <v>0.2857142857142857</v>
@@ -61825,7 +61825,7 @@
         <v>177</v>
       </c>
       <c r="AF169" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG169">
         <v>0.2</v>
@@ -62220,7 +62220,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ170">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR170">
         <v>0</v>
@@ -62244,7 +62244,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY170">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ170">
         <v>0</v>
@@ -62328,7 +62328,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA170">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB170">
         <v>0</v>
@@ -62346,7 +62346,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG170">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH170">
         <v>0</v>
@@ -62504,10 +62504,10 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R171">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S171">
         <v>0</v>
@@ -62558,7 +62558,7 @@
         <v>0</v>
       </c>
       <c r="AI171">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ171">
         <v>0</v>
@@ -62582,7 +62582,7 @@
         <v>0</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR171">
         <v>0</v>
@@ -62606,7 +62606,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY171">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ171">
         <v>0.1428571428571428</v>
@@ -62630,7 +62630,7 @@
         <v>0</v>
       </c>
       <c r="BG171">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH171">
         <v>0</v>
@@ -62672,7 +62672,7 @@
         <v>0</v>
       </c>
       <c r="BU171">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV171">
         <v>0</v>
@@ -62690,7 +62690,7 @@
         <v>0</v>
       </c>
       <c r="CA171">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB171">
         <v>0</v>
@@ -62708,7 +62708,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG171">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH171">
         <v>0.1428571428571428</v>
@@ -62866,10 +62866,10 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R172">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S172">
         <v>0</v>
@@ -62920,7 +62920,7 @@
         <v>0.2</v>
       </c>
       <c r="AI172">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ172">
         <v>0</v>
@@ -62944,7 +62944,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ172">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR172">
         <v>0</v>
@@ -62968,7 +62968,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY172">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ172">
         <v>0</v>
@@ -63070,7 +63070,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG172">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH172">
         <v>0.1428571428571428</v>
@@ -64676,10 +64676,10 @@
         <v>0.25</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S177">
         <v>1</v>
@@ -64730,7 +64730,7 @@
         <v>0.2</v>
       </c>
       <c r="AI177">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ177">
         <v>0.2</v>
@@ -64754,7 +64754,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ177">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR177">
         <v>0.1666666666666667</v>
@@ -64778,7 +64778,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY177">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ177">
         <v>0.1428571428571428</v>
@@ -65140,7 +65140,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY178">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ178">
         <v>0.1428571428571428</v>
@@ -65445,7 +65445,7 @@
         <v>177</v>
       </c>
       <c r="AF179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG179">
         <v>0.2</v>
@@ -65559,7 +65559,7 @@
         <v>177</v>
       </c>
       <c r="BR179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS179">
         <v>0.2</v>
@@ -65762,10 +65762,10 @@
         <v>0.25</v>
       </c>
       <c r="Q180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S180">
         <v>0</v>
@@ -65816,7 +65816,7 @@
         <v>0.2</v>
       </c>
       <c r="AI180">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ180">
         <v>0</v>
@@ -65840,7 +65840,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ180">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR180">
         <v>0</v>
@@ -65864,7 +65864,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY180">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ180">
         <v>0</v>
@@ -66540,7 +66540,7 @@
         <v>0.2</v>
       </c>
       <c r="AI182">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ182">
         <v>0</v>
@@ -66564,7 +66564,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ182">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR182">
         <v>0</v>
@@ -66588,7 +66588,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY182">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ182">
         <v>0</v>
@@ -66654,7 +66654,7 @@
         <v>0.2</v>
       </c>
       <c r="BU182">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV182">
         <v>0</v>
@@ -66672,7 +66672,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA182">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB182">
         <v>0</v>
@@ -66690,7 +66690,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG182">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH182">
         <v>0.1428571428571428</v>
@@ -67288,7 +67288,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ184">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR184">
         <v>0.3333333333333333</v>
@@ -67312,7 +67312,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY184">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ184">
         <v>0.4285714285714285</v>
@@ -67572,10 +67572,10 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S185">
         <v>0</v>
@@ -67626,7 +67626,7 @@
         <v>0</v>
       </c>
       <c r="AI185">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ185">
         <v>0</v>
@@ -67650,7 +67650,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ185">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR185">
         <v>0.1666666666666667</v>
@@ -67674,7 +67674,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY185">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ185">
         <v>0.1428571428571428</v>
@@ -67698,7 +67698,7 @@
         <v>0</v>
       </c>
       <c r="BG185">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH185">
         <v>0.25</v>
@@ -67740,7 +67740,7 @@
         <v>0</v>
       </c>
       <c r="BU185">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV185">
         <v>0.2</v>
@@ -67758,7 +67758,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA185">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB185">
         <v>0.3333333333333333</v>
@@ -67776,7 +67776,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG185">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH185">
         <v>0.2857142857142857</v>
@@ -67934,10 +67934,10 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S186">
         <v>0</v>
@@ -67988,7 +67988,7 @@
         <v>0</v>
       </c>
       <c r="AI186">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ186">
         <v>0.2</v>
@@ -68012,7 +68012,7 @@
         <v>0</v>
       </c>
       <c r="AQ186">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR186">
         <v>0.1666666666666667</v>
@@ -68036,7 +68036,7 @@
         <v>0</v>
       </c>
       <c r="AY186">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ186">
         <v>0.1428571428571428</v>
@@ -68296,10 +68296,10 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S187">
         <v>1</v>
@@ -68350,7 +68350,7 @@
         <v>0</v>
       </c>
       <c r="AI187">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ187">
         <v>0.2</v>
@@ -68374,7 +68374,7 @@
         <v>0</v>
       </c>
       <c r="AQ187">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR187">
         <v>0.1666666666666667</v>
@@ -68398,7 +68398,7 @@
         <v>0</v>
       </c>
       <c r="AY187">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ187">
         <v>0.1428571428571428</v>
@@ -69074,7 +69074,7 @@
         <v>0.2</v>
       </c>
       <c r="AI189">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ189">
         <v>0.4</v>
@@ -69098,7 +69098,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ189">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR189">
         <v>0.5</v>
@@ -69122,7 +69122,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY189">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ189">
         <v>0.4285714285714285</v>
@@ -69382,10 +69382,10 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S190">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>177</v>
       </c>
       <c r="AF190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG190">
         <v>0.4</v>
@@ -69436,7 +69436,7 @@
         <v>0.2</v>
       </c>
       <c r="AI190">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ190">
         <v>0.2</v>
@@ -69460,7 +69460,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ190">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR190">
         <v>0.1666666666666667</v>
@@ -69484,7 +69484,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY190">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ190">
         <v>0.1428571428571428</v>
@@ -69541,7 +69541,7 @@
         <v>178</v>
       </c>
       <c r="BR190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS190">
         <v>0.4</v>
@@ -70830,10 +70830,10 @@
         <v>0.25</v>
       </c>
       <c r="Q194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S194">
         <v>1</v>
@@ -70884,7 +70884,7 @@
         <v>0.2</v>
       </c>
       <c r="AI194">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ194">
         <v>0.2</v>
@@ -70908,7 +70908,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ194">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR194">
         <v>0.1666666666666667</v>
@@ -70932,7 +70932,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY194">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ194">
         <v>0.1428571428571428</v>
@@ -70956,7 +70956,7 @@
         <v>0.5</v>
       </c>
       <c r="BG194">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH194">
         <v>0.25</v>
@@ -70998,7 +70998,7 @@
         <v>0.4</v>
       </c>
       <c r="BU194">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV194">
         <v>0.2</v>
@@ -71016,7 +71016,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA194">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB194">
         <v>0.1666666666666667</v>
@@ -71034,7 +71034,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG194">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH194">
         <v>0.1428571428571428</v>
@@ -71294,7 +71294,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY195">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ195">
         <v>0</v>
@@ -71396,7 +71396,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG195">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH195">
         <v>0.1428571428571428</v>
@@ -71554,10 +71554,10 @@
         <v>0.25</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S196">
         <v>1</v>
@@ -71599,7 +71599,7 @@
         <v>178</v>
       </c>
       <c r="AF196" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG196">
         <v>0</v>
@@ -71608,7 +71608,7 @@
         <v>0.2</v>
       </c>
       <c r="AI196">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ196">
         <v>0.2</v>
@@ -71632,7 +71632,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ196">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR196">
         <v>0.1666666666666667</v>
@@ -71656,7 +71656,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY196">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ196">
         <v>0.1428571428571428</v>
@@ -71680,7 +71680,7 @@
         <v>0.5</v>
       </c>
       <c r="BG196">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH196">
         <v>0.25</v>
@@ -71722,7 +71722,7 @@
         <v>0.4</v>
       </c>
       <c r="BU196">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV196">
         <v>0.2</v>
@@ -71740,7 +71740,7 @@
         <v>0.5</v>
       </c>
       <c r="CA196">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB196">
         <v>0.1666666666666667</v>
@@ -71758,7 +71758,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG196">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH196">
         <v>0.1428571428571428</v>
@@ -72278,10 +72278,10 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S198">
         <v>1</v>
@@ -72332,7 +72332,7 @@
         <v>0</v>
       </c>
       <c r="AI198">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ198">
         <v>0.2</v>
@@ -72356,7 +72356,7 @@
         <v>0</v>
       </c>
       <c r="AQ198">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR198">
         <v>0.1666666666666667</v>
@@ -72380,7 +72380,7 @@
         <v>0</v>
       </c>
       <c r="AY198">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ198">
         <v>0.1428571428571428</v>
@@ -72404,7 +72404,7 @@
         <v>0.25</v>
       </c>
       <c r="BG198">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH198">
         <v>0.25</v>
@@ -72446,7 +72446,7 @@
         <v>0.2</v>
       </c>
       <c r="BU198">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV198">
         <v>0.2</v>
@@ -72464,7 +72464,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA198">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB198">
         <v>0.1666666666666667</v>
@@ -72482,7 +72482,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG198">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH198">
         <v>0.1428571428571428</v>
@@ -72718,7 +72718,7 @@
         <v>0</v>
       </c>
       <c r="AQ199">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR199">
         <v>0</v>
@@ -72742,7 +72742,7 @@
         <v>0</v>
       </c>
       <c r="AY199">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ199">
         <v>0</v>
@@ -72826,7 +72826,7 @@
         <v>0</v>
       </c>
       <c r="CA199">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB199">
         <v>0.1666666666666667</v>
@@ -72844,7 +72844,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG199">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH199">
         <v>0.1428571428571428</v>
@@ -73080,7 +73080,7 @@
         <v>0</v>
       </c>
       <c r="AQ200">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR200">
         <v>0</v>
@@ -73104,7 +73104,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY200">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ200">
         <v>0.1428571428571428</v>
@@ -73804,7 +73804,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ202">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR202">
         <v>0.1666666666666667</v>
@@ -73828,7 +73828,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY202">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ202">
         <v>0.1428571428571428</v>
@@ -73912,7 +73912,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA202">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB202">
         <v>0.1666666666666667</v>
@@ -73930,7 +73930,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG202">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH202">
         <v>0.1428571428571428</v>
@@ -74088,10 +74088,10 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S203">
         <v>0</v>
@@ -74142,7 +74142,7 @@
         <v>0</v>
       </c>
       <c r="AI203">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ203">
         <v>0</v>
@@ -74166,7 +74166,7 @@
         <v>0</v>
       </c>
       <c r="AQ203">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR203">
         <v>0</v>
@@ -74190,7 +74190,7 @@
         <v>0</v>
       </c>
       <c r="AY203">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ203">
         <v>0</v>
@@ -74214,7 +74214,7 @@
         <v>0</v>
       </c>
       <c r="BG203">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH203">
         <v>0</v>
@@ -74256,7 +74256,7 @@
         <v>0</v>
       </c>
       <c r="BU203">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV203">
         <v>0</v>
@@ -74274,7 +74274,7 @@
         <v>0</v>
       </c>
       <c r="CA203">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB203">
         <v>0</v>
@@ -74292,7 +74292,7 @@
         <v>0</v>
       </c>
       <c r="CG203">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH203">
         <v>0</v>
@@ -74450,10 +74450,10 @@
         <v>0.25</v>
       </c>
       <c r="Q204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R204">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S204">
         <v>1</v>
@@ -74504,7 +74504,7 @@
         <v>0.2</v>
       </c>
       <c r="AI204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ204">
         <v>0.2</v>
@@ -74528,7 +74528,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ204">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR204">
         <v>0.1666666666666667</v>
@@ -74552,7 +74552,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY204">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ204">
         <v>0.1428571428571428</v>
@@ -74576,7 +74576,7 @@
         <v>0.25</v>
       </c>
       <c r="BG204">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH204">
         <v>0.25</v>
@@ -74618,7 +74618,7 @@
         <v>0.4</v>
       </c>
       <c r="BU204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV204">
         <v>0.2</v>
@@ -74636,7 +74636,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA204">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB204">
         <v>0.1666666666666667</v>
@@ -74654,7 +74654,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG204">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH204">
         <v>0.1428571428571428</v>
@@ -75219,7 +75219,7 @@
         <v>177</v>
       </c>
       <c r="AF206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG206">
         <v>0.4</v>
@@ -75536,10 +75536,10 @@
         <v>0.25</v>
       </c>
       <c r="Q207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R207">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S207">
         <v>1</v>
@@ -75590,7 +75590,7 @@
         <v>0.2</v>
       </c>
       <c r="AI207">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ207">
         <v>0.2</v>
@@ -75614,7 +75614,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ207">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR207">
         <v>0.1666666666666667</v>
@@ -75638,7 +75638,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY207">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ207">
         <v>0.2857142857142857</v>
@@ -76314,7 +76314,7 @@
         <v>0.4</v>
       </c>
       <c r="AI209">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ209">
         <v>0.4</v>
@@ -76338,7 +76338,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ209">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR209">
         <v>0.3333333333333333</v>
@@ -76362,7 +76362,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY209">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ209">
         <v>0.2857142857142857</v>
@@ -76622,10 +76622,10 @@
         <v>0.25</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S210">
         <v>1</v>
@@ -76676,7 +76676,7 @@
         <v>0.2</v>
       </c>
       <c r="AI210">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ210">
         <v>0.2</v>
@@ -76700,7 +76700,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ210">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR210">
         <v>0.1666666666666667</v>
@@ -76724,7 +76724,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY210">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ210">
         <v>0.1428571428571428</v>
@@ -76984,10 +76984,10 @@
         <v>0.25</v>
       </c>
       <c r="Q211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S211">
         <v>1</v>
@@ -77038,7 +77038,7 @@
         <v>0.2</v>
       </c>
       <c r="AI211">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ211">
         <v>0.2</v>
@@ -77062,7 +77062,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ211">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR211">
         <v>0.3333333333333333</v>
@@ -77086,7 +77086,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY211">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ211">
         <v>0.2857142857142857</v>
@@ -77110,7 +77110,7 @@
         <v>0.25</v>
       </c>
       <c r="BG211">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH211">
         <v>0.25</v>
@@ -77152,7 +77152,7 @@
         <v>0.2</v>
       </c>
       <c r="BU211">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV211">
         <v>0.2</v>
@@ -77170,7 +77170,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA211">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB211">
         <v>0.3333333333333333</v>
@@ -77188,7 +77188,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG211">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH211">
         <v>0.2857142857142857</v>
@@ -77391,7 +77391,7 @@
         <v>177</v>
       </c>
       <c r="AF212" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG212">
         <v>0.2</v>
@@ -77505,7 +77505,7 @@
         <v>177</v>
       </c>
       <c r="BR212" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS212">
         <v>0.2</v>
@@ -77762,7 +77762,7 @@
         <v>0</v>
       </c>
       <c r="AI213">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ213">
         <v>0</v>
@@ -77786,7 +77786,7 @@
         <v>0</v>
       </c>
       <c r="AQ213">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR213">
         <v>0</v>
@@ -77810,7 +77810,7 @@
         <v>0</v>
       </c>
       <c r="AY213">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ213">
         <v>0</v>
@@ -77876,7 +77876,7 @@
         <v>0</v>
       </c>
       <c r="BU213">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV213">
         <v>0</v>
@@ -77894,7 +77894,7 @@
         <v>0</v>
       </c>
       <c r="CA213">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB213">
         <v>0</v>
@@ -77912,7 +77912,7 @@
         <v>0</v>
       </c>
       <c r="CG213">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH213">
         <v>0</v>
@@ -78794,10 +78794,10 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R216">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S216">
         <v>0</v>
@@ -78848,7 +78848,7 @@
         <v>0.2</v>
       </c>
       <c r="AI216">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ216">
         <v>0.2</v>
@@ -78872,7 +78872,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ216">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR216">
         <v>0.1666666666666667</v>
@@ -78896,7 +78896,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY216">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ216">
         <v>0.1428571428571428</v>
@@ -79258,7 +79258,7 @@
         <v>0</v>
       </c>
       <c r="AY217">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ217">
         <v>0</v>
@@ -79360,7 +79360,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG217">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH217">
         <v>0</v>
@@ -79518,10 +79518,10 @@
         <v>0.25</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R218">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S218">
         <v>1</v>
@@ -79572,7 +79572,7 @@
         <v>0.4</v>
       </c>
       <c r="AI218">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ218">
         <v>0.4</v>
@@ -79596,7 +79596,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ218">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR218">
         <v>0.3333333333333333</v>
@@ -79620,7 +79620,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY218">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ218">
         <v>0.2857142857142857</v>
@@ -79880,10 +79880,10 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R219">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S219">
         <v>0</v>
@@ -79934,7 +79934,7 @@
         <v>0</v>
       </c>
       <c r="AI219">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ219">
         <v>0</v>
@@ -79958,7 +79958,7 @@
         <v>0</v>
       </c>
       <c r="AQ219">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR219">
         <v>0</v>
@@ -79982,7 +79982,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY219">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ219">
         <v>0.1428571428571428</v>
@@ -80006,7 +80006,7 @@
         <v>0</v>
       </c>
       <c r="BG219">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH219">
         <v>0</v>
@@ -80048,7 +80048,7 @@
         <v>0</v>
       </c>
       <c r="BU219">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV219">
         <v>0</v>
@@ -80066,7 +80066,7 @@
         <v>0</v>
       </c>
       <c r="CA219">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB219">
         <v>0</v>
@@ -80084,7 +80084,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG219">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH219">
         <v>0.1428571428571428</v>
@@ -80242,10 +80242,10 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R220">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S220">
         <v>0</v>
@@ -80296,7 +80296,7 @@
         <v>0</v>
       </c>
       <c r="AI220">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ220">
         <v>0</v>
@@ -80320,7 +80320,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ220">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR220">
         <v>0.1666666666666667</v>
@@ -80344,7 +80344,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY220">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ220">
         <v>0.1428571428571428</v>
@@ -80604,10 +80604,10 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R221">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S221">
         <v>0</v>
@@ -80658,7 +80658,7 @@
         <v>0</v>
       </c>
       <c r="AI221">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ221">
         <v>0</v>
@@ -80682,7 +80682,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ221">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR221">
         <v>0.1666666666666667</v>
@@ -80706,7 +80706,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY221">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ221">
         <v>0.1428571428571428</v>
@@ -80730,7 +80730,7 @@
         <v>0.25</v>
       </c>
       <c r="BG221">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH221">
         <v>0</v>
@@ -80772,7 +80772,7 @@
         <v>0.2</v>
       </c>
       <c r="BU221">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV221">
         <v>0</v>
@@ -80790,7 +80790,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA221">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB221">
         <v>0.1666666666666667</v>
@@ -80808,7 +80808,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG221">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH221">
         <v>0.1428571428571428</v>
@@ -81690,10 +81690,10 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S224">
         <v>0</v>
@@ -81744,7 +81744,7 @@
         <v>0</v>
       </c>
       <c r="AI224">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ224">
         <v>0</v>
@@ -81768,7 +81768,7 @@
         <v>0</v>
       </c>
       <c r="AQ224">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR224">
         <v>0</v>
@@ -81792,7 +81792,7 @@
         <v>0</v>
       </c>
       <c r="AY224">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ224">
         <v>0</v>
@@ -82414,10 +82414,10 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R226">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S226">
         <v>0</v>
@@ -82468,7 +82468,7 @@
         <v>0</v>
       </c>
       <c r="AI226">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ226">
         <v>0</v>
@@ -82492,7 +82492,7 @@
         <v>0</v>
       </c>
       <c r="AQ226">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR226">
         <v>0</v>
@@ -82516,7 +82516,7 @@
         <v>0</v>
       </c>
       <c r="AY226">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ226">
         <v>0</v>
@@ -82618,7 +82618,7 @@
         <v>0</v>
       </c>
       <c r="CG226">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH226">
         <v>0</v>
@@ -82830,7 +82830,7 @@
         <v>0</v>
       </c>
       <c r="AI227">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ227">
         <v>0</v>
@@ -82854,7 +82854,7 @@
         <v>0</v>
       </c>
       <c r="AQ227">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR227">
         <v>0</v>
@@ -82878,7 +82878,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY227">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ227">
         <v>0.1428571428571428</v>
@@ -82944,7 +82944,7 @@
         <v>0</v>
       </c>
       <c r="BU227">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV227">
         <v>0</v>
@@ -82962,7 +82962,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA227">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB227">
         <v>0</v>
@@ -82980,7 +82980,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG227">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH227">
         <v>0.1428571428571428</v>
@@ -83138,10 +83138,10 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S228">
         <v>0</v>
@@ -83192,7 +83192,7 @@
         <v>0</v>
       </c>
       <c r="AI228">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ228">
         <v>0</v>
@@ -83216,7 +83216,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ228">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR228">
         <v>0.1666666666666667</v>
@@ -83240,7 +83240,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY228">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ228">
         <v>0.1428571428571428</v>
@@ -83264,7 +83264,7 @@
         <v>0</v>
       </c>
       <c r="BG228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH228">
         <v>0</v>
@@ -83306,7 +83306,7 @@
         <v>0.2</v>
       </c>
       <c r="BU228">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV228">
         <v>0</v>
@@ -83324,7 +83324,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA228">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB228">
         <v>0.1666666666666667</v>
@@ -83342,7 +83342,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG228">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH228">
         <v>0.1428571428571428</v>
@@ -83578,7 +83578,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ229">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR229">
         <v>0.1666666666666667</v>
@@ -83602,7 +83602,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY229">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ229">
         <v>0.1428571428571428</v>
@@ -84224,10 +84224,10 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S231">
         <v>0</v>
@@ -84278,7 +84278,7 @@
         <v>0.2</v>
       </c>
       <c r="AI231">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ231">
         <v>0.2</v>
@@ -84302,7 +84302,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ231">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR231">
         <v>0.1666666666666667</v>
@@ -84326,7 +84326,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY231">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ231">
         <v>0.2857142857142857</v>
@@ -84350,7 +84350,7 @@
         <v>0.25</v>
       </c>
       <c r="BG231">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH231">
         <v>0</v>
@@ -84392,7 +84392,7 @@
         <v>0.4</v>
       </c>
       <c r="BU231">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV231">
         <v>0.2</v>
@@ -84410,7 +84410,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA231">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB231">
         <v>0.1666666666666667</v>
@@ -84428,7 +84428,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG231">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH231">
         <v>0.2857142857142857</v>
@@ -84664,7 +84664,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ232">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR232">
         <v>0.1666666666666667</v>
@@ -84688,7 +84688,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY232">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ232">
         <v>0.1428571428571428</v>
@@ -84772,7 +84772,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA232">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB232">
         <v>0.1666666666666667</v>
@@ -84790,7 +84790,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG232">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH232">
         <v>0.2857142857142857</v>
@@ -84993,7 +84993,7 @@
         <v>177</v>
       </c>
       <c r="AF233" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG233">
         <v>0.2</v>
@@ -85364,7 +85364,7 @@
         <v>0.2</v>
       </c>
       <c r="AI234">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ234">
         <v>0.2</v>
@@ -85388,7 +85388,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ234">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR234">
         <v>0.1666666666666667</v>
@@ -85412,7 +85412,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY234">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ234">
         <v>0.1428571428571428</v>
@@ -86034,10 +86034,10 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S236">
         <v>0</v>
@@ -86088,7 +86088,7 @@
         <v>0.2</v>
       </c>
       <c r="AI236">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ236">
         <v>0.2</v>
@@ -86112,7 +86112,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ236">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR236">
         <v>0.1666666666666667</v>
@@ -86136,7 +86136,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY236">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ236">
         <v>0.1428571428571428</v>
@@ -86160,7 +86160,7 @@
         <v>0.25</v>
       </c>
       <c r="BG236">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH236">
         <v>0</v>
@@ -86202,7 +86202,7 @@
         <v>0.4</v>
       </c>
       <c r="BU236">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV236">
         <v>0.2</v>
@@ -86220,7 +86220,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA236">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB236">
         <v>0.1666666666666667</v>
@@ -86238,7 +86238,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG236">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH236">
         <v>0.1428571428571428</v>
@@ -86441,7 +86441,7 @@
         <v>178</v>
       </c>
       <c r="AF237" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG237">
         <v>0.2</v>
@@ -86555,7 +86555,7 @@
         <v>178</v>
       </c>
       <c r="BR237" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS237">
         <v>0.2</v>
@@ -86758,10 +86758,10 @@
         <v>0.25</v>
       </c>
       <c r="Q238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R238">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S238">
         <v>1</v>
@@ -86812,7 +86812,7 @@
         <v>0.2</v>
       </c>
       <c r="AI238">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ238">
         <v>0.2</v>
@@ -86836,7 +86836,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ238">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR238">
         <v>0.1666666666666667</v>
@@ -86860,7 +86860,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY238">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ238">
         <v>0.1428571428571428</v>
@@ -87482,10 +87482,10 @@
         <v>0.25</v>
       </c>
       <c r="Q240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S240">
         <v>1</v>
@@ -87536,7 +87536,7 @@
         <v>0.2</v>
       </c>
       <c r="AI240">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ240">
         <v>0.2</v>
@@ -87560,7 +87560,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ240">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR240">
         <v>0.3333333333333333</v>
@@ -87584,7 +87584,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY240">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ240">
         <v>0.2857142857142857</v>
@@ -87608,7 +87608,7 @@
         <v>0.25</v>
       </c>
       <c r="BG240">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH240">
         <v>0.25</v>
@@ -87650,7 +87650,7 @@
         <v>0.2</v>
       </c>
       <c r="BU240">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV240">
         <v>0.2</v>
@@ -87668,7 +87668,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA240">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB240">
         <v>0.3333333333333333</v>
@@ -87686,7 +87686,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG240">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH240">
         <v>0.2857142857142857</v>
@@ -88568,10 +88568,10 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R243">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S243">
         <v>0</v>
@@ -88622,7 +88622,7 @@
         <v>0</v>
       </c>
       <c r="AI243">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ243">
         <v>0</v>
@@ -88646,7 +88646,7 @@
         <v>0</v>
       </c>
       <c r="AQ243">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR243">
         <v>0</v>
@@ -88670,7 +88670,7 @@
         <v>0</v>
       </c>
       <c r="AY243">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ243">
         <v>0</v>
@@ -89032,7 +89032,7 @@
         <v>0</v>
       </c>
       <c r="AY244">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ244">
         <v>0</v>
@@ -89292,10 +89292,10 @@
         <v>0.25</v>
       </c>
       <c r="Q245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R245">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S245">
         <v>2</v>
@@ -89346,7 +89346,7 @@
         <v>0.2</v>
       </c>
       <c r="AI245">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ245">
         <v>0.4</v>
@@ -89370,7 +89370,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ245">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR245">
         <v>0.3333333333333333</v>
@@ -89394,7 +89394,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY245">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ245">
         <v>0.2857142857142857</v>
@@ -89708,7 +89708,7 @@
         <v>0</v>
       </c>
       <c r="AI246">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ246">
         <v>0</v>
@@ -89732,7 +89732,7 @@
         <v>0</v>
       </c>
       <c r="AQ246">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR246">
         <v>0</v>
@@ -89756,7 +89756,7 @@
         <v>0</v>
       </c>
       <c r="AY246">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ246">
         <v>0.1428571428571428</v>
@@ -89822,7 +89822,7 @@
         <v>0.2</v>
       </c>
       <c r="BU246">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV246">
         <v>0.2</v>
@@ -89840,7 +89840,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA246">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB246">
         <v>0.1666666666666667</v>
@@ -89858,7 +89858,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG246">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH246">
         <v>0.2857142857142857</v>
@@ -90016,10 +90016,10 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R247">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S247">
         <v>1</v>
@@ -90070,7 +90070,7 @@
         <v>0</v>
       </c>
       <c r="AI247">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ247">
         <v>0.2</v>
@@ -90094,7 +90094,7 @@
         <v>0</v>
       </c>
       <c r="AQ247">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR247">
         <v>0.1666666666666667</v>
@@ -90118,7 +90118,7 @@
         <v>0</v>
       </c>
       <c r="AY247">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ247">
         <v>0.1428571428571428</v>
@@ -90142,7 +90142,7 @@
         <v>0</v>
       </c>
       <c r="BG247">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH247">
         <v>0.25</v>
@@ -90184,7 +90184,7 @@
         <v>0</v>
       </c>
       <c r="BU247">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV247">
         <v>0.2</v>
@@ -90202,7 +90202,7 @@
         <v>0</v>
       </c>
       <c r="CA247">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB247">
         <v>0.1666666666666667</v>
@@ -90220,7 +90220,7 @@
         <v>0</v>
       </c>
       <c r="CG247">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH247">
         <v>0.1428571428571428</v>
@@ -90842,7 +90842,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY249">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ249">
         <v>0.1428571428571428</v>
@@ -90944,7 +90944,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG249">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH249">
         <v>0.2857142857142857</v>
@@ -91102,10 +91102,10 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S250">
         <v>1</v>
@@ -91156,7 +91156,7 @@
         <v>0</v>
       </c>
       <c r="AI250">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ250">
         <v>0.2</v>
@@ -91180,7 +91180,7 @@
         <v>0</v>
       </c>
       <c r="AQ250">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR250">
         <v>0.1666666666666667</v>
@@ -91204,7 +91204,7 @@
         <v>0</v>
       </c>
       <c r="AY250">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ250">
         <v>0.1428571428571428</v>
@@ -91228,7 +91228,7 @@
         <v>0</v>
       </c>
       <c r="BG250">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH250">
         <v>0.25</v>
@@ -91270,7 +91270,7 @@
         <v>0</v>
       </c>
       <c r="BU250">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV250">
         <v>0.2</v>
@@ -91288,7 +91288,7 @@
         <v>0</v>
       </c>
       <c r="CA250">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB250">
         <v>0.1666666666666667</v>
@@ -91306,7 +91306,7 @@
         <v>0</v>
       </c>
       <c r="CG250">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH250">
         <v>0.1428571428571428</v>
@@ -91871,7 +91871,7 @@
         <v>177</v>
       </c>
       <c r="AF252" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG252">
         <v>0.2</v>
@@ -92266,7 +92266,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ253">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR253">
         <v>0</v>
@@ -92290,7 +92290,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY253">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ253">
         <v>0.1428571428571428</v>
@@ -92374,7 +92374,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA253">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB253">
         <v>0.1666666666666667</v>
@@ -92392,7 +92392,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="CG253">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH253">
         <v>0.2857142857142857</v>
@@ -92628,7 +92628,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ254">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR254">
         <v>0.3333333333333333</v>
@@ -92652,7 +92652,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY254">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ254">
         <v>0.2857142857142857</v>
@@ -92957,7 +92957,7 @@
         <v>178</v>
       </c>
       <c r="AF255" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG255">
         <v>0</v>
@@ -93071,7 +93071,7 @@
         <v>178</v>
       </c>
       <c r="BR255" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS255">
         <v>0.2</v>
@@ -93274,10 +93274,10 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R256">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S256">
         <v>0</v>
@@ -93328,7 +93328,7 @@
         <v>0</v>
       </c>
       <c r="AI256">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ256">
         <v>0</v>
@@ -93352,7 +93352,7 @@
         <v>0</v>
       </c>
       <c r="AQ256">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR256">
         <v>0</v>
@@ -93376,7 +93376,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY256">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ256">
         <v>0.1428571428571428</v>
@@ -93400,7 +93400,7 @@
         <v>0</v>
       </c>
       <c r="BG256">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH256">
         <v>0</v>
@@ -93442,7 +93442,7 @@
         <v>0</v>
       </c>
       <c r="BU256">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV256">
         <v>0</v>
@@ -93460,7 +93460,7 @@
         <v>0</v>
       </c>
       <c r="CA256">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB256">
         <v>0</v>
@@ -93478,7 +93478,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG256">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH256">
         <v>0.1428571428571428</v>
@@ -93998,10 +93998,10 @@
         <v>0.25</v>
       </c>
       <c r="Q258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R258">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S258">
         <v>1</v>
@@ -94052,7 +94052,7 @@
         <v>0.4</v>
       </c>
       <c r="AI258">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ258">
         <v>0.4</v>
@@ -94076,7 +94076,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ258">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR258">
         <v>0.3333333333333333</v>
@@ -94100,7 +94100,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="AY258">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ258">
         <v>0.2857142857142857</v>
@@ -94360,10 +94360,10 @@
         <v>0.25</v>
       </c>
       <c r="Q259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S259">
         <v>1</v>
@@ -94414,7 +94414,7 @@
         <v>0.2</v>
       </c>
       <c r="AI259">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ259">
         <v>0.2</v>
@@ -94438,7 +94438,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ259">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR259">
         <v>0.1666666666666667</v>
@@ -94462,7 +94462,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY259">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ259">
         <v>0.1428571428571428</v>
@@ -94776,7 +94776,7 @@
         <v>0</v>
       </c>
       <c r="AI260">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ260">
         <v>0</v>
@@ -94800,7 +94800,7 @@
         <v>0</v>
       </c>
       <c r="AQ260">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR260">
         <v>0</v>
@@ -94824,7 +94824,7 @@
         <v>0</v>
       </c>
       <c r="AY260">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ260">
         <v>0</v>
@@ -94890,7 +94890,7 @@
         <v>0.2</v>
       </c>
       <c r="BU260">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV260">
         <v>0.2</v>
@@ -94908,7 +94908,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA260">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB260">
         <v>0.1666666666666667</v>
@@ -94926,7 +94926,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG260">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH260">
         <v>0.1428571428571428</v>
@@ -95084,10 +95084,10 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R261">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S261">
         <v>0</v>
@@ -95138,7 +95138,7 @@
         <v>0</v>
       </c>
       <c r="AI261">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AJ261">
         <v>0</v>
@@ -95162,7 +95162,7 @@
         <v>0</v>
       </c>
       <c r="AQ261">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR261">
         <v>0</v>
@@ -95186,7 +95186,7 @@
         <v>0</v>
       </c>
       <c r="AY261">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ261">
         <v>0</v>
@@ -95210,7 +95210,7 @@
         <v>0</v>
       </c>
       <c r="BG261">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH261">
         <v>0.25</v>
@@ -95252,7 +95252,7 @@
         <v>0</v>
       </c>
       <c r="BU261">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BV261">
         <v>0.2</v>
@@ -95270,7 +95270,7 @@
         <v>0</v>
       </c>
       <c r="CA261">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB261">
         <v>0.1666666666666667</v>
@@ -95288,7 +95288,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG261">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH261">
         <v>0.1428571428571428</v>
@@ -95446,10 +95446,10 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R262">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S262">
         <v>0</v>
@@ -95500,7 +95500,7 @@
         <v>0</v>
       </c>
       <c r="AI262">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ262">
         <v>0</v>
@@ -95524,7 +95524,7 @@
         <v>0</v>
       </c>
       <c r="AQ262">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR262">
         <v>0</v>
@@ -95548,7 +95548,7 @@
         <v>0</v>
       </c>
       <c r="AY262">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ262">
         <v>0</v>
@@ -95808,10 +95808,10 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R263">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S263">
         <v>0</v>
@@ -95862,7 +95862,7 @@
         <v>0</v>
       </c>
       <c r="AI263">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ263">
         <v>0</v>
@@ -95886,7 +95886,7 @@
         <v>0</v>
       </c>
       <c r="AQ263">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR263">
         <v>0</v>
@@ -95910,7 +95910,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY263">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ263">
         <v>0.1428571428571428</v>
@@ -95934,7 +95934,7 @@
         <v>0</v>
       </c>
       <c r="BG263">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH263">
         <v>0</v>
@@ -95976,7 +95976,7 @@
         <v>0</v>
       </c>
       <c r="BU263">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV263">
         <v>0</v>
@@ -95994,7 +95994,7 @@
         <v>0</v>
       </c>
       <c r="CA263">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB263">
         <v>0</v>
@@ -96012,7 +96012,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG263">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH263">
         <v>0.1428571428571428</v>
@@ -96972,7 +96972,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ266">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR266">
         <v>0.1666666666666667</v>
@@ -96996,7 +96996,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY266">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ266">
         <v>0.2857142857142857</v>
@@ -97618,10 +97618,10 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S268">
         <v>0</v>
@@ -97672,7 +97672,7 @@
         <v>0</v>
       </c>
       <c r="AI268">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ268">
         <v>0</v>
@@ -97696,7 +97696,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ268">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR268">
         <v>0.1666666666666667</v>
@@ -97720,7 +97720,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY268">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ268">
         <v>0.1428571428571428</v>
@@ -98034,7 +98034,7 @@
         <v>0.2</v>
       </c>
       <c r="AI269">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ269">
         <v>0.2</v>
@@ -98058,7 +98058,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ269">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AR269">
         <v>0.1666666666666667</v>
@@ -98082,7 +98082,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY269">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ269">
         <v>0.1428571428571428</v>
@@ -98166,7 +98166,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA269">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB269">
         <v>0.1666666666666667</v>
@@ -98184,7 +98184,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG269">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH269">
         <v>0.1428571428571428</v>
@@ -98342,10 +98342,10 @@
         <v>0.25</v>
       </c>
       <c r="Q270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R270">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S270">
         <v>1</v>
@@ -98387,7 +98387,7 @@
         <v>178</v>
       </c>
       <c r="AF270" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG270">
         <v>0</v>
@@ -98396,7 +98396,7 @@
         <v>0.4</v>
       </c>
       <c r="AI270">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ270">
         <v>0.4</v>
@@ -98420,7 +98420,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ270">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR270">
         <v>0.3333333333333333</v>
@@ -98444,7 +98444,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY270">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ270">
         <v>0.2857142857142857</v>
@@ -98501,7 +98501,7 @@
         <v>178</v>
       </c>
       <c r="BR270" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS270">
         <v>0</v>
@@ -99790,10 +99790,10 @@
         <v>0.25</v>
       </c>
       <c r="Q274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R274">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S274">
         <v>1</v>
@@ -99835,7 +99835,7 @@
         <v>177</v>
       </c>
       <c r="AF274" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG274">
         <v>0.4</v>
@@ -99844,7 +99844,7 @@
         <v>0.2</v>
       </c>
       <c r="AI274">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ274">
         <v>0.2</v>
@@ -99868,7 +99868,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ274">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR274">
         <v>0.1666666666666667</v>
@@ -99892,7 +99892,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY274">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ274">
         <v>0.1428571428571428</v>
@@ -99916,7 +99916,7 @@
         <v>0.25</v>
       </c>
       <c r="BG274">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH274">
         <v>0.25</v>
@@ -99958,7 +99958,7 @@
         <v>0.2</v>
       </c>
       <c r="BU274">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV274">
         <v>0.2</v>
@@ -99976,7 +99976,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA274">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB274">
         <v>0.1666666666666667</v>
@@ -99994,7 +99994,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG274">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH274">
         <v>0.1428571428571428</v>
@@ -100152,10 +100152,10 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R275">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S275">
         <v>0</v>
@@ -100206,7 +100206,7 @@
         <v>0.2</v>
       </c>
       <c r="AI275">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ275">
         <v>0.2</v>
@@ -100230,7 +100230,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ275">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR275">
         <v>0.1666666666666667</v>
@@ -100254,7 +100254,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY275">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ275">
         <v>0.1428571428571428</v>
@@ -100278,7 +100278,7 @@
         <v>0</v>
       </c>
       <c r="BG275">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH275">
         <v>0.25</v>
@@ -100320,7 +100320,7 @@
         <v>0.2</v>
       </c>
       <c r="BU275">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV275">
         <v>0.4</v>
@@ -100338,7 +100338,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA275">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB275">
         <v>0.3333333333333333</v>
@@ -100356,7 +100356,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG275">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH275">
         <v>0.2857142857142857</v>
@@ -100514,10 +100514,10 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S276">
         <v>0</v>
@@ -100568,7 +100568,7 @@
         <v>0.2</v>
       </c>
       <c r="AI276">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ276">
         <v>0.2</v>
@@ -100592,7 +100592,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ276">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR276">
         <v>0.1666666666666667</v>
@@ -100616,7 +100616,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY276">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AZ276">
         <v>0.1428571428571428</v>
@@ -100718,7 +100718,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG276">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH276">
         <v>0.1428571428571428</v>
@@ -101962,10 +101962,10 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R280">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S280">
         <v>0</v>
@@ -102016,7 +102016,7 @@
         <v>0</v>
       </c>
       <c r="AI280">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ280">
         <v>0</v>
@@ -102040,7 +102040,7 @@
         <v>0</v>
       </c>
       <c r="AQ280">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR280">
         <v>0</v>
@@ -102064,7 +102064,7 @@
         <v>0</v>
       </c>
       <c r="AY280">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ280">
         <v>0</v>
@@ -102088,7 +102088,7 @@
         <v>0</v>
       </c>
       <c r="BG280">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH280">
         <v>0</v>
@@ -102130,7 +102130,7 @@
         <v>0</v>
       </c>
       <c r="BU280">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV280">
         <v>0</v>
@@ -102148,7 +102148,7 @@
         <v>0</v>
       </c>
       <c r="CA280">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB280">
         <v>0</v>
@@ -102166,7 +102166,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG280">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH280">
         <v>0.1428571428571428</v>
@@ -103048,10 +103048,10 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R283">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S283">
         <v>0</v>
@@ -103102,7 +103102,7 @@
         <v>0.2</v>
       </c>
       <c r="AI283">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ283">
         <v>0.2</v>
@@ -103126,7 +103126,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ283">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AR283">
         <v>0.1666666666666667</v>
@@ -103150,7 +103150,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY283">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ283">
         <v>0.1428571428571428</v>
@@ -103174,7 +103174,7 @@
         <v>0</v>
       </c>
       <c r="BG283">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH283">
         <v>0</v>
@@ -103216,7 +103216,7 @@
         <v>0.2</v>
       </c>
       <c r="BU283">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV283">
         <v>0.2</v>
@@ -103234,7 +103234,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA283">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB283">
         <v>0.1666666666666667</v>
@@ -103252,7 +103252,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG283">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CH283">
         <v>0.1428571428571428</v>
@@ -103410,10 +103410,10 @@
         <v>0.25</v>
       </c>
       <c r="Q284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R284">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S284">
         <v>1</v>
@@ -103464,7 +103464,7 @@
         <v>0.2</v>
       </c>
       <c r="AI284">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ284">
         <v>0.2</v>
@@ -103488,7 +103488,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ284">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR284">
         <v>0.1666666666666667</v>
@@ -103512,7 +103512,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY284">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AZ284">
         <v>0.1428571428571428</v>
@@ -103596,7 +103596,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA284">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB284">
         <v>0.1666666666666667</v>
@@ -103614,7 +103614,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG284">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="CH284">
         <v>0.1428571428571428</v>
@@ -103772,10 +103772,10 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R285">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S285">
         <v>0</v>
@@ -103826,7 +103826,7 @@
         <v>0</v>
       </c>
       <c r="AI285">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ285">
         <v>0</v>
@@ -103850,7 +103850,7 @@
         <v>0</v>
       </c>
       <c r="AQ285">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR285">
         <v>0</v>
@@ -103874,7 +103874,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY285">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ285">
         <v>0.1428571428571428</v>
@@ -104188,7 +104188,7 @@
         <v>0.4</v>
       </c>
       <c r="AI286">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ286">
         <v>0.4</v>
@@ -104212,7 +104212,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ286">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR286">
         <v>0.3333333333333333</v>
@@ -104236,7 +104236,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="AY286">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ286">
         <v>0.4285714285714285</v>
@@ -105582,10 +105582,10 @@
         <v>0.25</v>
       </c>
       <c r="Q290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S290">
         <v>1</v>
@@ -105636,7 +105636,7 @@
         <v>0.2</v>
       </c>
       <c r="AI290">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ290">
         <v>0.2</v>
@@ -105660,7 +105660,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ290">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR290">
         <v>0.1666666666666667</v>
@@ -105684,7 +105684,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY290">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ290">
         <v>0.1428571428571428</v>
@@ -105708,7 +105708,7 @@
         <v>0.5</v>
       </c>
       <c r="BG290">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BH290">
         <v>0.5</v>
@@ -105750,7 +105750,7 @@
         <v>0.4</v>
       </c>
       <c r="BU290">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV290">
         <v>0.4</v>
@@ -105768,7 +105768,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA290">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB290">
         <v>0.3333333333333333</v>
@@ -105786,7 +105786,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG290">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH290">
         <v>0.2857142857142857</v>
@@ -105989,7 +105989,7 @@
         <v>178</v>
       </c>
       <c r="AF291" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG291">
         <v>0</v>
@@ -106103,7 +106103,7 @@
         <v>178</v>
       </c>
       <c r="BR291" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS291">
         <v>0</v>
@@ -106306,10 +106306,10 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R292">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S292">
         <v>0</v>
@@ -106360,7 +106360,7 @@
         <v>0</v>
       </c>
       <c r="AI292">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ292">
         <v>0</v>
@@ -106384,7 +106384,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ292">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR292">
         <v>0.1666666666666667</v>
@@ -106408,7 +106408,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY292">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ292">
         <v>0.1428571428571428</v>
@@ -106432,7 +106432,7 @@
         <v>0</v>
       </c>
       <c r="BG292">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BH292">
         <v>0</v>
@@ -106474,7 +106474,7 @@
         <v>0</v>
       </c>
       <c r="BU292">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BV292">
         <v>0</v>
@@ -106492,7 +106492,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="CA292">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="CB292">
         <v>0.1666666666666667</v>
@@ -106510,7 +106510,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG292">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH292">
         <v>0.1428571428571428</v>
@@ -106722,7 +106722,7 @@
         <v>0.2</v>
       </c>
       <c r="AI293">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ293">
         <v>0.2</v>
@@ -106746,7 +106746,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ293">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR293">
         <v>0.1666666666666667</v>
@@ -106770,7 +106770,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY293">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ293">
         <v>0.1428571428571428</v>
@@ -106836,7 +106836,7 @@
         <v>0.4</v>
       </c>
       <c r="BU293">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BV293">
         <v>0.4</v>
@@ -106854,7 +106854,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CA293">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CB293">
         <v>0.3333333333333333</v>
@@ -106872,7 +106872,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="CG293">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="CH293">
         <v>0.2857142857142857</v>
@@ -107132,7 +107132,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY294">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ294">
         <v>0.1428571428571428</v>
@@ -107234,7 +107234,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="CG294">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CH294">
         <v>0.1428571428571428</v>
@@ -107392,10 +107392,10 @@
         <v>0.25</v>
       </c>
       <c r="Q295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R295">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S295">
         <v>1</v>
@@ -107446,7 +107446,7 @@
         <v>0.2</v>
       </c>
       <c r="AI295">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ295">
         <v>0.2</v>
@@ -107470,7 +107470,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ295">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR295">
         <v>0.1666666666666667</v>
@@ -107494,7 +107494,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY295">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AZ295">
         <v>0.2857142857142857</v>
@@ -107856,7 +107856,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AY296">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ296">
         <v>0.1428571428571428</v>
@@ -108161,7 +108161,7 @@
         <v>177</v>
       </c>
       <c r="AF297" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG297">
         <v>0.2</v>
@@ -108478,10 +108478,10 @@
         <v>0.5</v>
       </c>
       <c r="Q298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R298">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S298">
         <v>2</v>
@@ -108532,7 +108532,7 @@
         <v>0.4</v>
       </c>
       <c r="AI298">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ298">
         <v>0.4</v>
@@ -108556,7 +108556,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ298">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR298">
         <v>0.3333333333333333</v>
@@ -108580,7 +108580,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY298">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ298">
         <v>0.2857142857142857</v>
@@ -108918,7 +108918,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ299">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR299">
         <v>0.3333333333333333</v>
@@ -108942,7 +108942,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AY299">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AZ299">
         <v>0.2857142857142857</v>
